--- a/biology/Botanique/Santalum_insulare/Santalum_insulare.xlsx
+++ b/biology/Botanique/Santalum_insulare/Santalum_insulare.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>Santalum insulare est une espèce de plante à fleurs de la famille des Santalacées. C'est un arbuste ou arbre que l'on trouve dans le centre-sud du Pacifique, notamment aux îles Cook, Marquises, Pitcairn, îles de la Société et Australes [1].
-Sept variétés sont reconnues [1]:
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Santalum insulare est une espèce de plante à fleurs de la famille des Santalacées. C'est un arbuste ou arbre que l'on trouve dans le centre-sud du Pacifique, notamment aux îles Cook, Marquises, Pitcairn, îles de la Société et Australes .
+Sept variétés sont reconnues :
 Santalum insulaire var. alticola Fosberg &amp; Sachet – Îles de la Société
 Santalum insulaire var. hendersonense (F.Br.) Fosberg &amp; Sachet – Île Henderson (Îles Pitcairn)
 Santalum insulaire var. insulare – Miti'aro (Îles Cook), îles de la Société et îles Australes
